--- a/PM/OnlineMobileStore_IMP.xlsx
+++ b/PM/OnlineMobileStore_IMP.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>Issue Description</t>
   </si>
@@ -82,41 +82,6 @@
   </si>
   <si>
     <t>Assignee</t>
-  </si>
-  <si>
-    <t>OMS-IMP-PMP-01</t>
-  </si>
-  <si>
-    <t>The file are not located
-in the right place on GitHub</t>
-  </si>
-  <si>
-    <t>PMP should contain IMP, review&amp;approval process, Change management plan, and CMP</t>
-  </si>
-  <si>
-    <t>PMP is in the same place with IMP, review&amp;approval process, Change management plan, and CMP</t>
-  </si>
-  <si>
-    <t>Misanderstanding
-of the project roles</t>
-  </si>
-  <si>
-    <t>Salma</t>
-  </si>
-  <si>
-    <t>Ghada</t>
-  </si>
-  <si>
-    <t>30/3/2024</t>
-  </si>
-  <si>
-    <t>Report the change in the Change management plan</t>
-  </si>
-  <si>
-    <t>Modify the branching of the files in a correct way</t>
-  </si>
-  <si>
-    <t>31/3/2024</t>
   </si>
 </sst>
 </file>
@@ -207,7 +172,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -220,10 +185,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -559,23 +520,23 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" customWidth="1"/>
     <col min="7" max="7" width="10.28515625" customWidth="1"/>
     <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.7109375" customWidth="1"/>
-    <col min="12" max="12" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17" customWidth="1"/>
     <col min="13" max="13" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.28515625" bestFit="1" customWidth="1"/>
@@ -628,45 +589,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="105" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>26</v>
-      </c>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F2" t="s">
         <v>6</v>
       </c>
       <c r="G2" t="s">
         <v>1</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
